--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="原始統計" sheetId="1" r:id="rId1"/>
+    <sheet name="FreeMan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +78,54 @@
   </si>
   <si>
     <t>空加碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空加碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空2加碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看波段為盤整，突破後的回檔到前波高低點，%b在80以上或20以下試單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -104,12 +153,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,7 +191,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -445,12 +503,12 @@
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,22 +528,25 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>40709</v>
       </c>
@@ -504,14 +565,14 @@
       <c r="F3">
         <v>9596</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>26</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>40709</v>
       </c>
@@ -530,14 +591,14 @@
       <c r="F4">
         <v>8585</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>40710</v>
       </c>
@@ -557,13 +618,16 @@
         <v>8501</v>
       </c>
       <c r="G5">
+        <v>0.21</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>40710</v>
       </c>
@@ -583,174 +647,1685 @@
         <v>8509</v>
       </c>
       <c r="G6">
+        <v>-0.128</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-8</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>40711</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>8500</v>
+      </c>
+      <c r="F7">
+        <v>8512</v>
+      </c>
+      <c r="G7">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>40711</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8510</v>
+      </c>
+      <c r="F8">
+        <v>8521</v>
+      </c>
+      <c r="G8">
+        <v>1.246</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>40711</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>8472</v>
+      </c>
+      <c r="F9">
+        <v>8502</v>
+      </c>
+      <c r="G9">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>40714</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8509</v>
+      </c>
+      <c r="F10">
+        <v>8479</v>
+      </c>
+      <c r="G10">
+        <v>0.622</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>40714</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>8467</v>
+      </c>
+      <c r="F11">
+        <v>8443</v>
+      </c>
+      <c r="G11">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H11">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>40714</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>8452</v>
+      </c>
+      <c r="F12">
+        <v>8440</v>
+      </c>
+      <c r="G12">
+        <v>0.223</v>
+      </c>
+      <c r="H12">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>40714</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>8412</v>
+      </c>
+      <c r="F13">
+        <v>8402</v>
+      </c>
+      <c r="G13">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>40714</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>8417</v>
+      </c>
+      <c r="F14">
+        <v>8402</v>
+      </c>
+      <c r="G14">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H14">
+        <v>19</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>40714</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>8404</v>
+      </c>
+      <c r="F15">
+        <v>8394</v>
+      </c>
+      <c r="G15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
+        <v>40714</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>8404</v>
+      </c>
+      <c r="F16">
+        <v>8386</v>
+      </c>
+      <c r="G16">
+        <v>0.376</v>
+      </c>
+      <c r="H16">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>40714</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>8386</v>
+      </c>
+      <c r="F17">
+        <v>8382</v>
+      </c>
+      <c r="G17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>8433</v>
+      </c>
+      <c r="F18">
+        <v>8454</v>
+      </c>
+      <c r="G18">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="H18">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>8443</v>
+      </c>
+      <c r="F19">
+        <v>8452</v>
+      </c>
+      <c r="G19">
+        <v>1.149</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>8428</v>
+      </c>
+      <c r="F20">
+        <v>8405</v>
+      </c>
+      <c r="G20">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>8418</v>
+      </c>
+      <c r="F21">
+        <v>8411</v>
+      </c>
+      <c r="G21">
+        <v>0.09</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>8428</v>
+      </c>
+      <c r="F22">
+        <v>8465</v>
+      </c>
+      <c r="G22">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H22">
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>8442</v>
+      </c>
+      <c r="F23">
+        <v>8465</v>
+      </c>
+      <c r="G23">
+        <v>1.264</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>40716</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>8483</v>
+      </c>
+      <c r="F24">
+        <v>8503</v>
+      </c>
+      <c r="G24">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="H24">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>40716</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>8498</v>
+      </c>
+      <c r="F25">
+        <v>8502</v>
+      </c>
+      <c r="G25">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>40716</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>8445</v>
+      </c>
+      <c r="F26">
+        <v>8436</v>
+      </c>
+      <c r="G26">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H26">
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>40716</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>8426</v>
+      </c>
+      <c r="F27">
+        <v>8437</v>
+      </c>
+      <c r="G27">
+        <v>0.111</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>40716</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>8434</v>
+      </c>
+      <c r="F28">
+        <v>8423</v>
+      </c>
+      <c r="G28">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>40716</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>8419</v>
+      </c>
+      <c r="F29">
+        <v>8429</v>
+      </c>
+      <c r="G29">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
         <v>40732</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B33" s="2">
         <v>0.37708333333333338</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
         <v>8701</v>
       </c>
-      <c r="F16">
+      <c r="F33">
         <v>8741</v>
       </c>
-      <c r="G16">
+      <c r="G33">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H33">
         <v>49</v>
       </c>
-      <c r="H16">
+      <c r="I33">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
         <v>40732</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B34" s="2">
         <v>0.38055555555555554</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C34" t="s">
         <v>12</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>8716</v>
       </c>
-      <c r="F17">
+      <c r="F34">
         <v>8742</v>
       </c>
-      <c r="G17">
+      <c r="G34">
+        <v>1.538</v>
+      </c>
+      <c r="H34">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="I34">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
         <v>40732</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B35" s="2">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>8753</v>
       </c>
-      <c r="F18">
+      <c r="F35">
         <v>8685</v>
       </c>
-      <c r="G18">
+      <c r="G35">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="H35">
         <v>86</v>
       </c>
-      <c r="H18">
+      <c r="I35">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
         <v>40732</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B36" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>8741</v>
       </c>
-      <c r="F19">
+      <c r="F36">
         <v>8685</v>
       </c>
-      <c r="G19">
+      <c r="G36">
+        <v>-0.54400000000000004</v>
+      </c>
+      <c r="H36">
         <v>74</v>
       </c>
-      <c r="H19">
+      <c r="I36">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
         <v>40732</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B37" s="2">
         <v>0.53611111111111109</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>8663</v>
       </c>
-      <c r="F20">
+      <c r="F37">
         <v>8675</v>
       </c>
-      <c r="G20">
+      <c r="G37">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H37">
         <v>23</v>
       </c>
-      <c r="H20">
+      <c r="I37">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
         <v>40732</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B38" s="2">
         <v>0.54375000000000007</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C38" t="s">
         <v>12</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>8681</v>
       </c>
-      <c r="F21">
+      <c r="F38">
         <v>8676</v>
       </c>
-      <c r="G21">
+      <c r="G38">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="H38">
         <v>5</v>
       </c>
-      <c r="H21">
+      <c r="I38">
         <v>-5</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="2"/>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>40735</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>8610</v>
+      </c>
+      <c r="F39">
+        <v>8609</v>
+      </c>
+      <c r="G39">
+        <v>0.42</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>40735</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>8609</v>
+      </c>
+      <c r="F40">
+        <v>8584</v>
+      </c>
+      <c r="G40">
+        <v>0.104</v>
+      </c>
+      <c r="H40">
+        <v>36</v>
+      </c>
+      <c r="I40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>40735</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>8599</v>
+      </c>
+      <c r="F41">
+        <v>8584</v>
+      </c>
+      <c r="G41">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H41">
+        <v>28</v>
+      </c>
+      <c r="I41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>40735</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>8601</v>
+      </c>
+      <c r="F42">
+        <v>8592</v>
+      </c>
+      <c r="G42">
+        <v>1.006</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>40735</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>8590</v>
+      </c>
+      <c r="F43">
+        <v>8592</v>
+      </c>
+      <c r="G43">
+        <v>-0.313</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>40736</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>8528</v>
+      </c>
+      <c r="F44">
+        <v>8498</v>
+      </c>
+      <c r="G44">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>40736</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>8458</v>
+      </c>
+      <c r="F45">
+        <v>8418</v>
+      </c>
+      <c r="G45">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H45">
+        <v>46</v>
+      </c>
+      <c r="I45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>40736</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>8445</v>
+      </c>
+      <c r="F46">
+        <v>8418</v>
+      </c>
+      <c r="G46">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H46">
+        <v>33</v>
+      </c>
+      <c r="I46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>40736</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>8451</v>
+      </c>
+      <c r="F47">
+        <v>8418</v>
+      </c>
+      <c r="G47">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="H47">
+        <v>39</v>
+      </c>
+      <c r="I47">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>40736</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>8441</v>
+      </c>
+      <c r="F48">
+        <v>8418</v>
+      </c>
+      <c r="G48">
+        <v>-0.23200000000000001</v>
+      </c>
+      <c r="H48">
+        <v>36</v>
+      </c>
+      <c r="I48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>40737</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>8433</v>
+      </c>
+      <c r="F49">
+        <v>8436</v>
+      </c>
+      <c r="G49">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>40738</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>8474</v>
+      </c>
+      <c r="F50">
+        <v>8444</v>
+      </c>
+      <c r="G50">
+        <v>0.4</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>40738</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>8460</v>
+      </c>
+      <c r="F51">
+        <v>8448</v>
+      </c>
+      <c r="G51">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H51">
+        <v>18</v>
+      </c>
+      <c r="I51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>40738</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>8442</v>
+      </c>
+      <c r="F52">
+        <v>8451</v>
+      </c>
+      <c r="G52">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>40738</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>8449</v>
+      </c>
+      <c r="F53">
+        <v>8431</v>
+      </c>
+      <c r="G53">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="H53">
+        <v>23</v>
+      </c>
+      <c r="I53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>40738</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>8435</v>
+      </c>
+      <c r="F54">
+        <v>8424</v>
+      </c>
+      <c r="G54">
+        <v>-0.18</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="I54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>40738</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>8384</v>
+      </c>
+      <c r="F55">
+        <v>8387</v>
+      </c>
+      <c r="G55">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="H55">
+        <v>19</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>40738</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>8397</v>
+      </c>
+      <c r="F56">
+        <v>8408</v>
+      </c>
+      <c r="G56">
+        <v>0.86</v>
+      </c>
+      <c r="H56">
+        <v>23</v>
+      </c>
+      <c r="I56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>8476</v>
+      </c>
+      <c r="F3">
+        <v>8449</v>
+      </c>
+      <c r="G3">
+        <v>1.528</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>8453</v>
+      </c>
+      <c r="F4">
+        <v>8428</v>
+      </c>
+      <c r="G4">
+        <v>1.264</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8403</v>
+      </c>
+      <c r="F5">
+        <v>8435</v>
+      </c>
+      <c r="G5">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="H5">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8403</v>
+      </c>
+      <c r="F6">
+        <v>8423</v>
+      </c>
+      <c r="G6">
+        <v>0.125</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>40737</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>8441</v>
+      </c>
+      <c r="F17">
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H17">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>40737</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>8441</v>
+      </c>
+      <c r="F18">
+        <v>8431</v>
+      </c>
+      <c r="G18">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>40737</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>8464</v>
+      </c>
+      <c r="F19">
+        <v>8472</v>
+      </c>
+      <c r="G19">
+        <v>0.127</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>40737</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>8464</v>
+      </c>
+      <c r="F20">
+        <v>8469</v>
+      </c>
+      <c r="G20">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="原始統計" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,7 +121,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多</t>
+    <t>量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2044,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2055,12 +2059,12 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2083,108 +2087,120 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>40715</v>
+        <v>40716</v>
       </c>
       <c r="B3" s="2">
-        <v>0.36458333333333331</v>
+        <v>0.41736111111111113</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>8274</v>
+      </c>
+      <c r="F3">
+        <v>8502</v>
+      </c>
+      <c r="G3">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="H3">
+        <v>797</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>40717</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>8431</v>
+      </c>
+      <c r="F4">
+        <v>8416</v>
+      </c>
+      <c r="G4">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H4">
+        <v>352</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>40718</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8395</v>
+      </c>
+      <c r="F5">
+        <v>8381</v>
+      </c>
+      <c r="G5">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="H5">
+        <v>895</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>8476</v>
-      </c>
-      <c r="F3">
-        <v>8449</v>
-      </c>
-      <c r="G3">
-        <v>1.528</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>40715</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>8453</v>
-      </c>
-      <c r="F4">
-        <v>8428</v>
-      </c>
-      <c r="G4">
-        <v>1.264</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>40715</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.4465277777777778</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>8403</v>
-      </c>
-      <c r="F5">
-        <v>8435</v>
-      </c>
-      <c r="G5">
-        <v>-0.14699999999999999</v>
-      </c>
-      <c r="H5">
-        <v>42</v>
-      </c>
-      <c r="I5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>40715</v>
+        <v>40718</v>
       </c>
       <c r="B6" s="2">
-        <v>0.49791666666666662</v>
+        <v>0.46875</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -2193,136 +2209,115 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>8403</v>
+        <v>8391</v>
       </c>
       <c r="F6">
-        <v>8423</v>
+        <v>8381</v>
       </c>
       <c r="G6">
-        <v>0.125</v>
+        <v>1.06</v>
       </c>
       <c r="H6">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="I6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>40739</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>8475</v>
+      </c>
+      <c r="F16">
+        <v>8504</v>
+      </c>
+      <c r="G16">
+        <v>0.373</v>
+      </c>
+      <c r="H16">
+        <v>923</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>40737</v>
+        <v>40739</v>
       </c>
       <c r="B17" s="2">
-        <v>0.36944444444444446</v>
+        <v>0.5180555555555556</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>8441</v>
+        <v>8532</v>
       </c>
       <c r="F17">
-        <v>27</v>
+        <v>8549</v>
       </c>
       <c r="G17">
-        <v>0.95899999999999996</v>
+        <v>-0.31900000000000001</v>
       </c>
       <c r="H17">
+        <v>783</v>
+      </c>
+      <c r="I17">
         <v>23</v>
       </c>
-      <c r="I17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>40737</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.38958333333333334</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>8441</v>
-      </c>
-      <c r="F18">
-        <v>8431</v>
-      </c>
-      <c r="G18">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>40737</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.45763888888888887</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>8464</v>
-      </c>
-      <c r="F19">
-        <v>8472</v>
-      </c>
-      <c r="G19">
-        <v>0.127</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>40737</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.48680555555555555</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>8464</v>
-      </c>
-      <c r="F20">
-        <v>8469</v>
-      </c>
-      <c r="G20">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,14 @@
   </si>
   <si>
     <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2051,7 +2059,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2227,6 +2235,163 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>40722</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>8378</v>
+      </c>
+      <c r="F7">
+        <v>8358</v>
+      </c>
+      <c r="G7">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="H7">
+        <v>373</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>40723</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8363</v>
+      </c>
+      <c r="F8">
+        <v>8426</v>
+      </c>
+      <c r="G8">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="H8">
+        <v>140</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="J8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>40723</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>8466</v>
+      </c>
+      <c r="F9">
+        <v>8460</v>
+      </c>
+      <c r="G9">
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="H9">
+        <v>1258</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8471</v>
+      </c>
+      <c r="F10">
+        <v>8509</v>
+      </c>
+      <c r="G10">
+        <v>0.161</v>
+      </c>
+      <c r="H10">
+        <v>182</v>
+      </c>
+      <c r="I10">
+        <v>49</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>8504</v>
+      </c>
+      <c r="F11">
+        <v>8519</v>
+      </c>
+      <c r="G11">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
+    </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
@@ -2296,12 +2461,132 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>8478</v>
+      </c>
+      <c r="F18">
+        <v>8504</v>
+      </c>
+      <c r="G18">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="H18">
+        <v>611</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>8538</v>
+      </c>
+      <c r="F19">
+        <v>8560</v>
+      </c>
+      <c r="G19">
+        <v>0.154</v>
+      </c>
+      <c r="H19">
+        <v>230</v>
+      </c>
+      <c r="I19">
+        <v>24</v>
+      </c>
+      <c r="J19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>8544</v>
+      </c>
+      <c r="F20">
+        <v>8541</v>
+      </c>
+      <c r="G20">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H20">
+        <v>768</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>40743</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>8498</v>
+      </c>
+      <c r="F21">
+        <v>8517</v>
+      </c>
+      <c r="G21">
+        <v>0.153</v>
+      </c>
+      <c r="H21">
+        <v>366</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1"/>

--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2056,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2386,223 +2390,358 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="H11">
+        <v>289</v>
+      </c>
+      <c r="I11">
         <v>15</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>8590</v>
+      </c>
+      <c r="F12">
+        <v>8598</v>
+      </c>
+      <c r="G12">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H12">
+        <v>142</v>
+      </c>
+      <c r="I12">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>8604</v>
+      </c>
+      <c r="F13">
+        <v>8599</v>
+      </c>
+      <c r="G13">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="H13">
+        <v>41</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>40739</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.4145833333333333</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>8475</v>
-      </c>
-      <c r="F16">
-        <v>8504</v>
-      </c>
-      <c r="G16">
-        <v>0.373</v>
-      </c>
-      <c r="H16">
-        <v>923</v>
-      </c>
-      <c r="I16">
-        <v>35</v>
-      </c>
-      <c r="J16">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>40739</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.5180555555555556</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>8532</v>
-      </c>
-      <c r="F17">
-        <v>8549</v>
-      </c>
-      <c r="G17">
-        <v>-0.31900000000000001</v>
-      </c>
-      <c r="H17">
-        <v>783</v>
-      </c>
-      <c r="I17">
-        <v>23</v>
-      </c>
-      <c r="J17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <v>40742</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.38958333333333334</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>8478</v>
-      </c>
-      <c r="F18">
-        <v>8504</v>
-      </c>
-      <c r="G18">
-        <v>-0.16500000000000001</v>
-      </c>
-      <c r="H18">
-        <v>611</v>
-      </c>
-      <c r="I18">
-        <v>30</v>
-      </c>
-      <c r="J18">
-        <v>26</v>
-      </c>
-    </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <v>40742</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>8538</v>
-      </c>
-      <c r="F19">
-        <v>8560</v>
-      </c>
-      <c r="G19">
-        <v>0.154</v>
-      </c>
-      <c r="H19">
-        <v>230</v>
-      </c>
-      <c r="I19">
-        <v>24</v>
-      </c>
-      <c r="J19">
-        <v>22</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <v>40742</v>
+        <v>40739</v>
       </c>
       <c r="B20" s="2">
-        <v>0.5229166666666667</v>
+        <v>0.4145833333333333</v>
       </c>
       <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>8475</v>
+      </c>
+      <c r="F20">
+        <v>8504</v>
+      </c>
+      <c r="G20">
+        <v>0.373</v>
+      </c>
+      <c r="H20">
+        <v>923</v>
+      </c>
+      <c r="I20">
+        <v>35</v>
+      </c>
+      <c r="J20">
         <v>29</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>8544</v>
-      </c>
-      <c r="F20">
-        <v>8541</v>
-      </c>
-      <c r="G20">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H20">
-        <v>768</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>-3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
+        <v>40739</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>8532</v>
+      </c>
+      <c r="F21">
+        <v>8549</v>
+      </c>
+      <c r="G21">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="H21">
+        <v>783</v>
+      </c>
+      <c r="I21">
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>8478</v>
+      </c>
+      <c r="F22">
+        <v>8504</v>
+      </c>
+      <c r="G22">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="H22">
+        <v>611</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>8538</v>
+      </c>
+      <c r="F23">
+        <v>8560</v>
+      </c>
+      <c r="G23">
+        <v>0.154</v>
+      </c>
+      <c r="H23">
+        <v>230</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>8544</v>
+      </c>
+      <c r="F24">
+        <v>8541</v>
+      </c>
+      <c r="G24">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H24">
+        <v>768</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
         <v>40743</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B25" s="2">
         <v>0.42083333333333334</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>8498</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>8517</v>
       </c>
-      <c r="G21">
+      <c r="G25">
         <v>0.153</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>366</v>
       </c>
-      <c r="I21">
+      <c r="I25">
         <v>25</v>
       </c>
-      <c r="J21">
+      <c r="J25">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>40744</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>8647</v>
+      </c>
+      <c r="F26">
+        <v>8643</v>
+      </c>
+      <c r="G26">
+        <v>0.629</v>
+      </c>
+      <c r="H26">
+        <v>127</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>40744</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>8634</v>
+      </c>
+      <c r="F27">
+        <v>8462</v>
+      </c>
+      <c r="G27">
+        <v>0.48</v>
+      </c>
+      <c r="H27">
+        <v>38</v>
+      </c>
+      <c r="I27">
+        <v>34</v>
+      </c>
+      <c r="J27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2060,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2244,7 +2248,7 @@
         <v>40722</v>
       </c>
       <c r="B7" s="2">
-        <v>0.42569444444444443</v>
+        <v>0.39513888888888887</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -2253,54 +2257,54 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>8378</v>
+        <v>8386</v>
       </c>
       <c r="F7">
-        <v>8358</v>
+        <v>8375</v>
       </c>
       <c r="G7">
-        <v>1.1830000000000001</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="H7">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="I7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>40723</v>
+        <v>40722</v>
       </c>
       <c r="B8" s="2">
-        <v>0.41388888888888892</v>
+        <v>0.44930555555555557</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>8363</v>
+        <v>8373</v>
       </c>
       <c r="F8">
-        <v>8426</v>
+        <v>8358</v>
       </c>
       <c r="G8">
-        <v>0.70799999999999996</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="H8">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I8">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="J8">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2308,7 +2312,7 @@
         <v>40723</v>
       </c>
       <c r="B9" s="2">
-        <v>0.51597222222222217</v>
+        <v>0.41388888888888892</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -2317,30 +2321,30 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>8466</v>
+        <v>8363</v>
       </c>
       <c r="F9">
-        <v>8460</v>
+        <v>8426</v>
       </c>
       <c r="G9">
-        <v>-0.36599999999999999</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="H9">
-        <v>1258</v>
+        <v>140</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J9">
-        <v>-6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>40724</v>
+        <v>40723</v>
       </c>
       <c r="B10" s="2">
-        <v>0.42569444444444443</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2349,22 +2353,22 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>8471</v>
+        <v>8466</v>
       </c>
       <c r="F10">
-        <v>8509</v>
+        <v>8460</v>
       </c>
       <c r="G10">
-        <v>0.161</v>
+        <v>-0.36599999999999999</v>
       </c>
       <c r="H10">
-        <v>182</v>
+        <v>1258</v>
       </c>
       <c r="I10">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>38</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2372,7 +2376,7 @@
         <v>40724</v>
       </c>
       <c r="B11" s="2">
-        <v>0.47569444444444442</v>
+        <v>0.42569444444444443</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -2381,54 +2385,54 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8504</v>
+        <v>8471</v>
       </c>
       <c r="F11">
-        <v>8519</v>
+        <v>8509</v>
       </c>
       <c r="G11">
-        <v>0.80400000000000005</v>
+        <v>0.161</v>
       </c>
       <c r="H11">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>40725</v>
+        <v>40724</v>
       </c>
       <c r="B12" s="2">
-        <v>0.44791666666666669</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>8590</v>
+        <v>8504</v>
       </c>
       <c r="F12">
-        <v>8598</v>
+        <v>8519</v>
       </c>
       <c r="G12">
-        <v>0.55600000000000005</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="H12">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c r="I12">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2436,7 +2440,7 @@
         <v>40725</v>
       </c>
       <c r="B13" s="2">
-        <v>0.52222222222222225</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -2445,70 +2449,70 @@
         <v>1</v>
       </c>
       <c r="E13">
+        <v>8590</v>
+      </c>
+      <c r="F13">
+        <v>8598</v>
+      </c>
+      <c r="G13">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H13">
+        <v>142</v>
+      </c>
+      <c r="I13">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>8604</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>8599</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>0.35799999999999998</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>41</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>11</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>-5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <v>40739</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.4145833333333333</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>8475</v>
-      </c>
-      <c r="F20">
-        <v>8504</v>
-      </c>
-      <c r="G20">
-        <v>0.373</v>
-      </c>
-      <c r="H20">
-        <v>923</v>
-      </c>
-      <c r="I20">
-        <v>35</v>
-      </c>
-      <c r="J20">
-        <v>29</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>40739</v>
       </c>
       <c r="B21" s="2">
-        <v>0.5180555555555556</v>
+        <v>0.4145833333333333</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2517,54 +2521,54 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>8532</v>
+        <v>8475</v>
       </c>
       <c r="F21">
-        <v>8549</v>
+        <v>8504</v>
       </c>
       <c r="G21">
-        <v>-0.31900000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="H21">
-        <v>783</v>
+        <v>923</v>
       </c>
       <c r="I21">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J21">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>40742</v>
+        <v>40739</v>
       </c>
       <c r="B22" s="2">
-        <v>0.38958333333333334</v>
+        <v>0.5180555555555556</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>8478</v>
+        <v>8532</v>
       </c>
       <c r="F22">
-        <v>8504</v>
+        <v>8549</v>
       </c>
       <c r="G22">
-        <v>-0.16500000000000001</v>
+        <v>-0.31900000000000001</v>
       </c>
       <c r="H22">
-        <v>611</v>
+        <v>783</v>
       </c>
       <c r="I22">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J22">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2572,7 +2576,7 @@
         <v>40742</v>
       </c>
       <c r="B23" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.38958333333333334</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2581,22 +2585,22 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>8538</v>
+        <v>8478</v>
       </c>
       <c r="F23">
-        <v>8560</v>
+        <v>8504</v>
       </c>
       <c r="G23">
-        <v>0.154</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="H23">
-        <v>230</v>
+        <v>611</v>
       </c>
       <c r="I23">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2604,7 +2608,7 @@
         <v>40742</v>
       </c>
       <c r="B24" s="2">
-        <v>0.5229166666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2613,30 +2617,30 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>8544</v>
+        <v>8538</v>
       </c>
       <c r="F24">
-        <v>8541</v>
+        <v>8560</v>
       </c>
       <c r="G24">
-        <v>9.0999999999999998E-2</v>
+        <v>0.154</v>
       </c>
       <c r="H24">
-        <v>768</v>
+        <v>230</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J24">
-        <v>-3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
-        <v>40743</v>
+        <v>40742</v>
       </c>
       <c r="B25" s="2">
-        <v>0.42083333333333334</v>
+        <v>0.5229166666666667</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2645,54 +2649,54 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>8498</v>
+        <v>8544</v>
       </c>
       <c r="F25">
-        <v>8517</v>
+        <v>8541</v>
       </c>
       <c r="G25">
-        <v>0.153</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H25">
-        <v>366</v>
+        <v>768</v>
       </c>
       <c r="I25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>19</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
-        <v>40744</v>
+        <v>40743</v>
       </c>
       <c r="B26" s="2">
-        <v>0.43888888888888888</v>
+        <v>0.42083333333333334</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>8647</v>
+        <v>8498</v>
       </c>
       <c r="F26">
-        <v>8643</v>
+        <v>8517</v>
       </c>
       <c r="G26">
-        <v>0.629</v>
+        <v>0.153</v>
       </c>
       <c r="H26">
-        <v>127</v>
+        <v>366</v>
       </c>
       <c r="I26">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J26">
-        <v>-4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2700,7 +2704,7 @@
         <v>40744</v>
       </c>
       <c r="B27" s="2">
-        <v>0.4861111111111111</v>
+        <v>0.43888888888888888</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -2709,27 +2713,55 @@
         <v>1</v>
       </c>
       <c r="E27">
+        <v>8647</v>
+      </c>
+      <c r="F27">
+        <v>8643</v>
+      </c>
+      <c r="G27">
+        <v>0.629</v>
+      </c>
+      <c r="H27">
+        <v>127</v>
+      </c>
+      <c r="I27">
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>40744</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>8634</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>8462</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>0.48</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>38</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>34</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1"/>
@@ -2742,6 +2774,10 @@
     <row r="37" spans="1:2">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -10,12 +10,15 @@
     <sheet name="原始統計" sheetId="1" r:id="rId1"/>
     <sheet name="FreeMan" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FreeMan!$A$1:$M$44</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,35 +120,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看波段為盤整，突破後的回檔到前波高低點，%b在80以上或20以下試單</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空加碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多加碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30出場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高13:32 8704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
+    <t>空加碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,10 +168,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +187,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -201,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +237,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2064,95 +2089,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="A2" s="1">
+        <v>40716</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.41736111111111113</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8274</v>
+      </c>
+      <c r="F2">
+        <v>8502</v>
+      </c>
+      <c r="G2">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="H2">
+        <v>797</v>
+      </c>
+      <c r="I2">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>40716</v>
+        <v>40717</v>
       </c>
       <c r="B3" s="2">
-        <v>0.41736111111111113</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>8274</v>
+        <v>8431</v>
       </c>
       <c r="F3">
-        <v>8502</v>
+        <v>8416</v>
       </c>
       <c r="G3">
-        <v>-0.13400000000000001</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="H3">
-        <v>797</v>
+        <v>352</v>
       </c>
       <c r="I3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>40717</v>
+        <v>40718</v>
       </c>
       <c r="B4" s="2">
-        <v>0.47569444444444442</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2161,22 +2214,22 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>8431</v>
+        <v>8395</v>
       </c>
       <c r="F4">
-        <v>8416</v>
+        <v>8381</v>
       </c>
       <c r="G4">
-        <v>0.96199999999999997</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="H4">
-        <v>352</v>
+        <v>895</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2184,39 +2237,39 @@
         <v>40718</v>
       </c>
       <c r="B5" s="2">
-        <v>0.3888888888888889</v>
+        <v>0.46875</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>8395</v>
+        <v>8391</v>
       </c>
       <c r="F5">
         <v>8381</v>
       </c>
       <c r="G5">
-        <v>0.82699999999999996</v>
+        <v>1.06</v>
       </c>
       <c r="H5">
-        <v>895</v>
+        <v>322</v>
       </c>
       <c r="I5">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>40718</v>
+        <v>40722</v>
       </c>
       <c r="B6" s="2">
-        <v>0.46875</v>
+        <v>0.39513888888888887</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -2225,22 +2278,22 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>8391</v>
+        <v>8386</v>
       </c>
       <c r="F6">
-        <v>8381</v>
+        <v>8375</v>
       </c>
       <c r="G6">
-        <v>1.06</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="H6">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="I6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2248,7 +2301,7 @@
         <v>40722</v>
       </c>
       <c r="B7" s="2">
-        <v>0.39513888888888887</v>
+        <v>0.44930555555555557</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -2257,54 +2310,54 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>8386</v>
+        <v>8373</v>
       </c>
       <c r="F7">
-        <v>8375</v>
+        <v>8358</v>
       </c>
       <c r="G7">
-        <v>0.61799999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="H7">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>40722</v>
+        <v>40723</v>
       </c>
       <c r="B8" s="2">
-        <v>0.44930555555555557</v>
+        <v>0.41388888888888892</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>8373</v>
+        <v>8363</v>
       </c>
       <c r="F8">
-        <v>8358</v>
+        <v>8426</v>
       </c>
       <c r="G8">
-        <v>0.30299999999999999</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="H8">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I8">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2312,63 +2365,63 @@
         <v>40723</v>
       </c>
       <c r="B9" s="2">
-        <v>0.41388888888888892</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>8363</v>
+        <v>8466</v>
       </c>
       <c r="F9">
-        <v>8426</v>
+        <v>8460</v>
       </c>
       <c r="G9">
-        <v>0.70799999999999996</v>
+        <v>-0.36599999999999999</v>
       </c>
       <c r="H9">
-        <v>140</v>
+        <v>1258</v>
       </c>
       <c r="I9">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>63</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>40723</v>
+        <v>40724</v>
       </c>
       <c r="B10" s="2">
-        <v>0.51597222222222217</v>
+        <v>0.42569444444444443</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>8466</v>
+        <v>8471</v>
       </c>
       <c r="F10">
-        <v>8460</v>
+        <v>8509</v>
       </c>
       <c r="G10">
-        <v>-0.36599999999999999</v>
+        <v>0.161</v>
       </c>
       <c r="H10">
-        <v>1258</v>
+        <v>182</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J10">
-        <v>-6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2376,63 +2429,63 @@
         <v>40724</v>
       </c>
       <c r="B11" s="2">
-        <v>0.42569444444444443</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8471</v>
+        <v>8504</v>
       </c>
       <c r="F11">
-        <v>8509</v>
+        <v>8519</v>
       </c>
       <c r="G11">
-        <v>0.161</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="H11">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="I11">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J11">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>40724</v>
+        <v>40725</v>
       </c>
       <c r="B12" s="2">
-        <v>0.47569444444444442</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>8504</v>
+        <v>8590</v>
       </c>
       <c r="F12">
-        <v>8519</v>
+        <v>8598</v>
       </c>
       <c r="G12">
-        <v>0.80400000000000005</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="H12">
-        <v>289</v>
+        <v>142</v>
       </c>
       <c r="I12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J12">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2440,7 +2493,7 @@
         <v>40725</v>
       </c>
       <c r="B13" s="2">
-        <v>0.44791666666666669</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -2449,335 +2502,904 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>8590</v>
+        <v>8604</v>
       </c>
       <c r="F13">
-        <v>8598</v>
+        <v>8599</v>
       </c>
       <c r="G13">
-        <v>0.55600000000000005</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="H13">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I13">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>40725</v>
+        <v>40728</v>
       </c>
       <c r="B14" s="2">
-        <v>0.52222222222222225</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>8604</v>
+        <v>8622</v>
       </c>
       <c r="F14">
-        <v>8599</v>
+        <v>8615</v>
       </c>
       <c r="G14">
-        <v>0.35799999999999998</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="I14">
         <v>11</v>
       </c>
       <c r="J14">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>40728</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>8644</v>
+      </c>
+      <c r="F15">
+        <v>8637</v>
+      </c>
+      <c r="G15">
+        <v>0.79</v>
+      </c>
+      <c r="H15">
+        <v>178</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>40729</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>8593</v>
+      </c>
+      <c r="F16">
+        <v>8615</v>
+      </c>
+      <c r="G16">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H16">
+        <v>189</v>
+      </c>
+      <c r="I16">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>40730</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>8684</v>
+      </c>
+      <c r="F17">
+        <v>8698</v>
+      </c>
+      <c r="G17">
+        <v>0.184</v>
+      </c>
+      <c r="H17">
+        <v>176</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>40731</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>8687</v>
+      </c>
+      <c r="F18">
+        <v>8680</v>
+      </c>
+      <c r="G18">
+        <v>0.27</v>
+      </c>
+      <c r="H18">
+        <v>296</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>40731</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>8688</v>
+      </c>
+      <c r="F19">
+        <v>8684</v>
+      </c>
+      <c r="G19">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H19">
+        <v>144</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>40731</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>8681</v>
+      </c>
+      <c r="F20">
+        <v>8696</v>
+      </c>
+      <c r="G20">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H20">
+        <v>81</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>40732</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>8749</v>
+      </c>
+      <c r="F21">
+        <v>8741</v>
+      </c>
+      <c r="G21">
+        <v>0.432</v>
+      </c>
+      <c r="H21">
+        <v>151</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>40732</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>8669</v>
+      </c>
+      <c r="F22">
+        <v>8681</v>
+      </c>
+      <c r="G22">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H22">
+        <v>359</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>40735</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>8617</v>
+      </c>
+      <c r="F23">
+        <v>8584</v>
+      </c>
+      <c r="G23">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="H23">
+        <v>268</v>
+      </c>
+      <c r="I23">
+        <v>44</v>
+      </c>
+      <c r="J23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>40735</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>8605</v>
+      </c>
+      <c r="F24">
+        <v>8588</v>
+      </c>
+      <c r="G24">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="H24">
+        <v>302</v>
+      </c>
+      <c r="I24">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>40736</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>8458</v>
+      </c>
+      <c r="F25">
+        <v>8418</v>
+      </c>
+      <c r="G25">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="H25">
+        <v>135</v>
+      </c>
+      <c r="I25">
+        <v>45</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>40737</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>8435</v>
+      </c>
+      <c r="F26">
+        <v>8451</v>
+      </c>
+      <c r="G26">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H26">
+        <v>403</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>40737</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>8477</v>
+      </c>
+      <c r="F27">
+        <v>8459</v>
+      </c>
+      <c r="G27">
+        <v>0.749</v>
+      </c>
+      <c r="H27">
+        <v>87</v>
+      </c>
+      <c r="I27">
+        <v>22</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>40738</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>8492</v>
+      </c>
+      <c r="F28">
+        <v>8470</v>
+      </c>
+      <c r="G28">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="H28">
+        <v>437</v>
+      </c>
+      <c r="I28">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>40739</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>8475</v>
+      </c>
+      <c r="F29">
+        <v>8504</v>
+      </c>
+      <c r="G29">
+        <v>0.373</v>
+      </c>
+      <c r="H29">
+        <v>923</v>
+      </c>
+      <c r="I29">
+        <v>35</v>
+      </c>
+      <c r="J29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>40739</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>8532</v>
+      </c>
+      <c r="F30">
+        <v>8549</v>
+      </c>
+      <c r="G30">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="H30">
+        <v>783</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>8478</v>
+      </c>
+      <c r="F31">
+        <v>8504</v>
+      </c>
+      <c r="G31">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="H31">
+        <v>611</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>8538</v>
+      </c>
+      <c r="F32">
+        <v>8560</v>
+      </c>
+      <c r="G32">
+        <v>0.154</v>
+      </c>
+      <c r="H32">
+        <v>230</v>
+      </c>
+      <c r="I32">
+        <v>24</v>
+      </c>
+      <c r="J32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>8544</v>
+      </c>
+      <c r="F33">
+        <v>8541</v>
+      </c>
+      <c r="G33">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H33">
+        <v>768</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>40743</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>8498</v>
+      </c>
+      <c r="F34">
+        <v>8517</v>
+      </c>
+      <c r="G34">
+        <v>0.153</v>
+      </c>
+      <c r="H34">
+        <v>366</v>
+      </c>
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>40744</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>8647</v>
+      </c>
+      <c r="F35">
+        <v>8643</v>
+      </c>
+      <c r="G35">
+        <v>0.629</v>
+      </c>
+      <c r="H35">
+        <v>127</v>
+      </c>
+      <c r="I35">
+        <v>13</v>
+      </c>
+      <c r="J35">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>40744</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>8634</v>
+      </c>
+      <c r="F36">
+        <v>8462</v>
+      </c>
+      <c r="G36">
+        <v>0.48</v>
+      </c>
+      <c r="H36">
+        <v>38</v>
+      </c>
+      <c r="I36">
+        <v>34</v>
+      </c>
+      <c r="J36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>40745</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>8629</v>
+      </c>
+      <c r="F37">
+        <v>8621</v>
+      </c>
+      <c r="G37">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="H37">
+        <v>222</v>
+      </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>40745</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>8630</v>
+      </c>
+      <c r="F38">
+        <v>8625</v>
+      </c>
+      <c r="G38">
+        <v>0.246</v>
+      </c>
+      <c r="H38">
+        <v>197</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1">
-        <v>40739</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.4145833333333333</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>8475</v>
-      </c>
-      <c r="F21">
-        <v>8504</v>
-      </c>
-      <c r="G21">
-        <v>0.373</v>
-      </c>
-      <c r="H21">
-        <v>923</v>
-      </c>
-      <c r="I21">
-        <v>35</v>
-      </c>
-      <c r="J21">
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>40746</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="C39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <v>40739</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.5180555555555556</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>8532</v>
-      </c>
-      <c r="F22">
-        <v>8549</v>
-      </c>
-      <c r="G22">
-        <v>-0.31900000000000001</v>
-      </c>
-      <c r="H22">
-        <v>783</v>
-      </c>
-      <c r="I22">
-        <v>23</v>
-      </c>
-      <c r="J22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1">
-        <v>40742</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.38958333333333334</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>8694</v>
+      </c>
+      <c r="F39">
+        <v>8723</v>
+      </c>
+      <c r="G39">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H39">
+        <v>230</v>
+      </c>
+      <c r="I39">
+        <v>36</v>
+      </c>
+      <c r="J39">
         <v>29</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>8478</v>
-      </c>
-      <c r="F23">
-        <v>8504</v>
-      </c>
-      <c r="G23">
-        <v>-0.16500000000000001</v>
-      </c>
-      <c r="H23">
-        <v>611</v>
-      </c>
-      <c r="I23">
-        <v>30</v>
-      </c>
-      <c r="J23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1">
-        <v>40742</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>8538</v>
-      </c>
-      <c r="F24">
-        <v>8560</v>
-      </c>
-      <c r="G24">
-        <v>0.154</v>
-      </c>
-      <c r="H24">
-        <v>230</v>
-      </c>
-      <c r="I24">
-        <v>24</v>
-      </c>
-      <c r="J24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1">
-        <v>40742</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.5229166666666667</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>8544</v>
-      </c>
-      <c r="F25">
-        <v>8541</v>
-      </c>
-      <c r="G25">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H25">
-        <v>768</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1">
-        <v>40743</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>8498</v>
-      </c>
-      <c r="F26">
-        <v>8517</v>
-      </c>
-      <c r="G26">
-        <v>0.153</v>
-      </c>
-      <c r="H26">
-        <v>366</v>
-      </c>
-      <c r="I26">
-        <v>25</v>
-      </c>
-      <c r="J26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1">
-        <v>40744</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.43888888888888888</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>8647</v>
-      </c>
-      <c r="F27">
-        <v>8643</v>
-      </c>
-      <c r="G27">
-        <v>0.629</v>
-      </c>
-      <c r="H27">
-        <v>127</v>
-      </c>
-      <c r="I27">
-        <v>13</v>
-      </c>
-      <c r="J27">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1">
-        <v>40744</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>8634</v>
-      </c>
-      <c r="F28">
-        <v>8462</v>
-      </c>
-      <c r="G28">
-        <v>0.48</v>
-      </c>
-      <c r="H28">
-        <v>38</v>
-      </c>
-      <c r="I28">
-        <v>34</v>
-      </c>
-      <c r="J28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>40746</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>8724</v>
+      </c>
+      <c r="F40">
+        <v>8714</v>
+      </c>
+      <c r="G40">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H40">
+        <v>91</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="K44" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2091,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2450,10 +2450,10 @@
         <v>289</v>
       </c>
       <c r="I11">
+        <v>21</v>
+      </c>
+      <c r="J11">
         <v>15</v>
-      </c>
-      <c r="J11">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3391,14 +3391,132 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1">
+        <v>40749</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>8614</v>
+      </c>
+      <c r="F41">
+        <v>8622</v>
+      </c>
+      <c r="G41">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="H41">
+        <v>300</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>-8</v>
+      </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="1">
+        <v>40750</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>8649</v>
+      </c>
+      <c r="F42">
+        <v>8633</v>
+      </c>
+      <c r="G42">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="H42">
+        <v>348</v>
+      </c>
+      <c r="I42">
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>40750</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>8679</v>
+      </c>
+      <c r="F43">
+        <v>8710</v>
+      </c>
+      <c r="G43">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="H43">
+        <v>305</v>
+      </c>
+      <c r="I43">
+        <v>38</v>
+      </c>
+      <c r="J43">
+        <v>31</v>
+      </c>
     </row>
     <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>40750</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>8714</v>
+      </c>
+      <c r="F44">
+        <v>8704</v>
+      </c>
+      <c r="G44">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H44">
+        <v>125</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>-10</v>
+      </c>
       <c r="K44" s="5"/>
     </row>
   </sheetData>

--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -11,14 +11,14 @@
     <sheet name="FreeMan" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FreeMan!$A$1:$M$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FreeMan!$A$1:$M$45</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2089,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3519,6 +3519,38 @@
       </c>
       <c r="K44" s="5"/>
     </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>40751</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>8738</v>
+      </c>
+      <c r="F45">
+        <v>8754</v>
+      </c>
+      <c r="G45">
+        <v>0.312</v>
+      </c>
+      <c r="H45">
+        <v>264</v>
+      </c>
+      <c r="I45">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>空加碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2089,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3551,6 +3555,70 @@
         <v>16</v>
       </c>
     </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>40752</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>8713</v>
+      </c>
+      <c r="F46">
+        <v>8707</v>
+      </c>
+      <c r="G46">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="H46">
+        <v>65</v>
+      </c>
+      <c r="I46">
+        <v>11</v>
+      </c>
+      <c r="J46">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>40753</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>8622</v>
+      </c>
+      <c r="F47">
+        <v>8633</v>
+      </c>
+      <c r="G47">
+        <v>0.40810000000000002</v>
+      </c>
+      <c r="H47">
+        <v>189</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>-11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,9 @@
   <si>
     <t>空</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30出場</t>
   </si>
 </sst>
 </file>
@@ -2093,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3619,6 +3622,73 @@
         <v>-11</v>
       </c>
     </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>40756</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>8786</v>
+      </c>
+      <c r="F48">
+        <v>8789</v>
+      </c>
+      <c r="G48">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="H48">
+        <v>147</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>40756</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>8682</v>
+      </c>
+      <c r="F49">
+        <v>8689</v>
+      </c>
+      <c r="G49">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="H49">
+        <v>84</v>
+      </c>
+      <c r="I49">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>7</v>
+      </c>
+      <c r="L49" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/交易紀錄/台指當沖2011.xlsx
+++ b/trunk/交易紀錄/台指當沖2011.xlsx
@@ -11,14 +11,14 @@
     <sheet name="FreeMan" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FreeMan!$A$1:$M$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FreeMan!$A$1:$M$53</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="41">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>13:30出場</t>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2096,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3689,6 +3701,262 @@
         <v>37</v>
       </c>
     </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>40757</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>8572</v>
+      </c>
+      <c r="F50">
+        <v>8579</v>
+      </c>
+      <c r="G50">
+        <v>0.64359999999999995</v>
+      </c>
+      <c r="H50">
+        <v>80</v>
+      </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>40758</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>8400</v>
+      </c>
+      <c r="F51">
+        <v>8404</v>
+      </c>
+      <c r="G51">
+        <v>0.7762</v>
+      </c>
+      <c r="H51">
+        <v>104</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>40758</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>8428</v>
+      </c>
+      <c r="F52">
+        <v>8433</v>
+      </c>
+      <c r="G52">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="H52">
+        <v>114</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>40759</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>8478</v>
+      </c>
+      <c r="F53">
+        <v>8454</v>
+      </c>
+      <c r="G53">
+        <v>0.40410000000000001</v>
+      </c>
+      <c r="H53">
+        <v>639</v>
+      </c>
+      <c r="I53">
+        <v>33</v>
+      </c>
+      <c r="J53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>40760</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>7962</v>
+      </c>
+      <c r="F54">
+        <v>7927</v>
+      </c>
+      <c r="G54">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="H54">
+        <v>478</v>
+      </c>
+      <c r="I54">
+        <v>49</v>
+      </c>
+      <c r="J54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>40765</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>7626</v>
+      </c>
+      <c r="F55">
+        <v>7612</v>
+      </c>
+      <c r="G55">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="H55">
+        <v>321</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>40765</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>7657</v>
+      </c>
+      <c r="F56">
+        <v>7671</v>
+      </c>
+      <c r="G56">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="H56">
+        <v>293</v>
+      </c>
+      <c r="I56">
+        <v>25</v>
+      </c>
+      <c r="J56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>40767</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>7729</v>
+      </c>
+      <c r="F57">
+        <v>7720</v>
+      </c>
+      <c r="G57">
+        <v>0.29459999999999997</v>
+      </c>
+      <c r="H57">
+        <v>148</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>-9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
